--- a/SpMVC_ShopV2/쇼핑몰.xlsx
+++ b/SpMVC_ShopV2/쇼핑몰.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보 테이블 명세 양식" sheetId="2" r:id="rId1"/>
     <sheet name="거래처명 테이블 명세 양식" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A10:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>데이터 형식</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,6 +278,26 @@
   </si>
   <si>
     <t>쇼핑몰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제Flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NOT_USE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFAUL VULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULt NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F11"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1893,7 +1909,9 @@
       <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
@@ -1911,11 +1929,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2062,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2983,11 +3011,21 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3116,12 +3154,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
